--- a/FDLocalizeder_Excel模板.xlsx
+++ b/FDLocalizeder_Excel模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chuxiao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chuxiao/Documents/Develop/Other/FDLocalizeder/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1420" windowWidth="25360" windowHeight="17540"/>
+    <workbookView xWindow="1820" yWindow="1960" windowWidth="25360" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,6 @@
   </si>
   <si>
     <t>Remarque :</t>
-  </si>
-  <si>
-    <t>app_note_explaination1</t>
-  </si>
-  <si>
-    <t>The size chart is for reference purpose only.</t>
-  </si>
-  <si>
-    <t>La tabla de tamaños solo sirve de referencia.</t>
-  </si>
-  <si>
-    <t>Le tableau des tailles est à titre de référence uniquement.</t>
-  </si>
-  <si>
-    <t>แผนภูมิขนาดนี้ใช้เพื่อการอ้างอิงเท่านั้น</t>
   </si>
   <si>
     <t>Longueur</t>
@@ -226,6 +211,47 @@
     <t>FDLocalizeder_Excel模板</t>
     <rPh sb="19" eb="20">
       <t>mu'ban</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>this_language_is</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是繁体中文</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'ti</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong'wen</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英语</t>
+    <rPh sb="2" eb="3">
+      <t>ying'yu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是西班牙语</t>
+    <rPh sb="2" eb="3">
+      <t>xi'ban'ya</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是法语</t>
+    <rPh sb="2" eb="3">
+      <t>fa'yu</t>
     </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1599,7 +1625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1614,19 +1642,19 @@
   <sheetData>
     <row r="1" spans="1:256" s="22" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -1882,19 +1910,19 @@
     </row>
     <row r="2" spans="1:256" ht="131" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1918,19 +1946,19 @@
     </row>
     <row r="3" spans="1:256" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -1954,13 +1982,13 @@
     </row>
     <row r="4" spans="1:256" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>1</v>
@@ -1990,19 +2018,19 @@
     </row>
     <row r="5" spans="1:256" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
